--- a/A-开发相关文档素材/6.二期文档/产品接口与参数项目命名.xlsx
+++ b/A-开发相关文档素材/6.二期文档/产品接口与参数项目命名.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="修改履历" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="319">
   <si>
     <t>系统</t>
   </si>
@@ -691,18 +691,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>bipl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>语音回复设定</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>vrs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>注册帐户</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1108,10 +1100,6 @@
   </si>
   <si>
     <t>/gtd/aibutler/text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/gtd/sync/initial_sync</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1246,6 +1234,28 @@
   </si>
   <si>
     <t>丁朝辉, 席理加, 张金洋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bipl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vrs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ini/parameters</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口列表
+修改
+初始化参数接口URL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>席理加</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1253,7 +1263,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1284,13 +1294,57 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1307,7 +1361,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1322,6 +1376,24 @@
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1605,8 +1677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -1622,10 +1694,10 @@
         <v>43528</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D1" s="3"/>
     </row>
@@ -1634,17 +1706,23 @@
         <v>43528</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
+    <row r="3" spans="1:4" ht="33.75" x14ac:dyDescent="0.15">
+      <c r="A3" s="3">
+        <v>43528</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>318</v>
+      </c>
       <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
@@ -1669,8 +1747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1699,410 +1777,410 @@
         <v>33</v>
       </c>
       <c r="D2" t="s">
+        <v>316</v>
+      </c>
+      <c r="E2" t="str">
+        <f>"{""_id"": ObjectID(), ""name"":"""&amp;C2&amp;""", ""value"":"""&amp;D2&amp;""", ""desc"":"""&amp;B2&amp;"""}"</f>
+        <v>{"_id": ObjectID(), "name":"ID", "value":"/ini/parameters", "desc":"初始化数据"}</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="E3" s="8" t="str">
+        <f t="shared" ref="E3:E31" si="0">"{""_id"": ObjectID(), ""name"":"""&amp;C3&amp;""", ""value"":"""&amp;D3&amp;""", ""desc"":"""&amp;B3&amp;"""}"</f>
+        <v>{"_id": ObjectID(), "name":"RA", "value":"/gtd/person/sign_up", "desc":"注册帐户"}</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="E4" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>{"_id": ObjectID(), "name":"SSMIC", "value":"/gtd/sms/code", "desc":"发送短信验证码"}</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="E5" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>{"_id": ObjectID(), "name":"SML", "value":"/gtd/auth/login_authcode", "desc":"短信登录"}</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="E6" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>{"_id": ObjectID(), "name":"PL", "value":"/gtd/auth/login_password", "desc":"密码登录"}</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="E7" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>{"_id": ObjectID(), "name":"AIU", "value":"/gtd/person/update_info", "desc":"帐户信息更新"}</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="E8" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>{"_id": ObjectID(), "name":"AIG", "value":"/gtd/person/search", "desc":"帐户信息获取"}</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="E9" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>{"_id": ObjectID(), "name":"AAG", "value":"/gtd/person/avatar", "desc":"帐户头像获取"}</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="E10" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>{"_id": ObjectID(), "name":"MP", "value":"/gtd/person/update_password", "desc":"修改密码"}</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="E11" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>{"_id": ObjectID(), "name":"B", "value":"/bac/backup", "desc":"备份"}</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="E12" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>{"_id": ObjectID(), "name":"R", "value":"/bac/recover", "desc":"恢复"}</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="E2" t="str">
-        <f>"{name:"""&amp;C2&amp;""", value:"""&amp;D2&amp;"""},"</f>
-        <v>{name:"ID", value:"/gtd/sync/initial_sync"},</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" t="s">
-        <v>272</v>
-      </c>
-      <c r="E3" t="str">
-        <f t="shared" ref="E3:E31" si="0">"{name:"""&amp;C3&amp;""", value:"""&amp;D3&amp;"""},"</f>
-        <v>{name:"RA", value:"/gtd/person/sign_up"},</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E13" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>{"_id": ObjectID(), "name":"BS", "value":"/bac/lastest", "desc":"备份查询"}</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="E14" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>{"_id": ObjectID(), "name":"AS", "value":"/agd/agenda/save", "desc":"日程保存"}</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="E15" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>{"_id": ObjectID(), "name":"ACS", "value":"/agd/agendacontacts/save", "desc":"日程参与人保存"}</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="E16" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>{"_id": ObjectID(), "name":"AG", "value":"/agd/agenda/info", "desc":"日程获取"}</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="E17" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>{"_id": ObjectID(), "name":"AR", "value":"/agd/agenda/remove", "desc":"日程删除"}</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="E18" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>{"_id": ObjectID(), "name":"ASU", "value":"/sha/agendashare", "desc":"日程转发(分享)上传"}</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="E19" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>{"_id": ObjectID(), "name":"AEW", "value":"/sha/agenda/share/分享ID", "desc":"日程网页浏览"}</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="E20" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>{"_id": ObjectID(), "name":"BLA", "value":"/bla/target/add", "desc":"黑名单手机/帐户添加"}</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="E21" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>{"_id": ObjectID(), "name":"BLR", "value":"/bla/target/remove", "desc":"黑名单手机/帐户删除"}</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="E22" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>{"_id": ObjectID(), "name":"BLG", "value":"/bla/list", "desc":"黑名单获取"}</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="E23" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>{"_id": ObjectID(), "name":"VU", "value":"/gtd/aibutler/audio_base64", "desc":"语音上传"}</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="E4" t="str">
+      <c r="C24" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="E24" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>{name:"SSMIC", value:"/gtd/sms/code"},</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" t="s">
-        <v>275</v>
-      </c>
-      <c r="E5" t="str">
+        <v>{"_id": ObjectID(), "name":"TU", "value":"/gtd/aibutler/text", "desc":"文本上传"}</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="E25" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>{name:"SML", value:"/gtd/auth/login_authcode"},</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" t="s">
-        <v>274</v>
-      </c>
-      <c r="E6" t="str">
+        <v>{"_id": ObjectID(), "name":"PU", "value":"/sha/planshare", "desc":"计划上传"}</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="E26" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>{name:"PL", value:"/gtd/auth/login_password"},</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" t="s">
-        <v>277</v>
-      </c>
-      <c r="E7" t="str">
+        <v>{"_id": ObjectID(), "name":"PEW", "value":"/sha/plan/share/分享ID", "desc":"计划网页浏览"}</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="E27" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>{name:"AIU", value:"/gtd/person/update_info"},</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" t="s">
-        <v>276</v>
-      </c>
-      <c r="E8" t="str">
-        <f t="shared" si="0"/>
-        <v>{name:"AIG", value:"/gtd/person/search"},</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" t="s">
-        <v>310</v>
-      </c>
-      <c r="E9" t="str">
-        <f t="shared" si="0"/>
-        <v>{name:"AAG", value:"/gtd/person/avatar"},</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" t="s">
-        <v>273</v>
-      </c>
-      <c r="E10" t="str">
-        <f t="shared" si="0"/>
-        <v>{name:"MP", value:"/gtd/person/update_password"},</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" t="s">
-        <v>284</v>
-      </c>
-      <c r="E11" t="str">
-        <f t="shared" si="0"/>
-        <v>{name:"B", value:"/bac/backup"},</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" t="s">
-        <v>285</v>
-      </c>
-      <c r="E12" t="str">
-        <f t="shared" si="0"/>
-        <v>{name:"R", value:"/bac/recover"},</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" t="s">
-        <v>286</v>
-      </c>
-      <c r="E13" t="str">
-        <f t="shared" si="0"/>
-        <v>{name:"BS", value:"/bac/lastest"},</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" t="s">
-        <v>295</v>
-      </c>
-      <c r="E14" t="str">
-        <f t="shared" si="0"/>
-        <v>{name:"AS", value:"/agd/agenda/save"},</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" t="s">
-        <v>296</v>
-      </c>
-      <c r="E15" t="str">
-        <f t="shared" si="0"/>
-        <v>{name:"ACS", value:"/agd/agendacontacts/save"},</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" t="s">
-        <v>297</v>
-      </c>
-      <c r="E16" t="str">
-        <f t="shared" si="0"/>
-        <v>{name:"AG", value:"/agd/agenda/info"},</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17" t="s">
-        <v>298</v>
-      </c>
-      <c r="E17" t="str">
-        <f t="shared" si="0"/>
-        <v>{name:"AR", value:"/agd/agenda/remove"},</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" t="s">
-        <v>287</v>
-      </c>
-      <c r="E18" t="str">
-        <f t="shared" si="0"/>
-        <v>{name:"ASU", value:"/sha/agendashare"},</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" t="s">
-        <v>288</v>
-      </c>
-      <c r="E19" t="str">
-        <f t="shared" si="0"/>
-        <v>{name:"AEW", value:"/sha/agenda/share/分享ID"},</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D20" t="s">
-        <v>292</v>
-      </c>
-      <c r="E20" t="str">
-        <f t="shared" si="0"/>
-        <v>{name:"BLA", value:"/bla/target/add"},</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>52</v>
-      </c>
-      <c r="D21" t="s">
-        <v>294</v>
-      </c>
-      <c r="E21" t="str">
-        <f t="shared" si="0"/>
-        <v>{name:"BLR", value:"/bla/target/remove"},</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" t="s">
-        <v>53</v>
-      </c>
-      <c r="D22" t="s">
-        <v>293</v>
-      </c>
-      <c r="E22" t="str">
-        <f t="shared" si="0"/>
-        <v>{name:"BLG", value:"/bla/list"},</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" t="s">
-        <v>54</v>
-      </c>
-      <c r="D23" t="s">
-        <v>279</v>
-      </c>
-      <c r="E23" t="str">
-        <f t="shared" si="0"/>
-        <v>{name:"VU", value:"/gtd/aibutler/audio_base64"},</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B24" t="s">
-        <v>280</v>
-      </c>
-      <c r="C24" t="s">
-        <v>281</v>
-      </c>
-      <c r="D24" t="s">
-        <v>282</v>
-      </c>
-      <c r="E24" t="str">
-        <f t="shared" si="0"/>
-        <v>{name:"TU", value:"/gtd/aibutler/text"},</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A25" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25" t="s">
-        <v>55</v>
-      </c>
-      <c r="D25" t="s">
-        <v>289</v>
-      </c>
-      <c r="E25" t="str">
-        <f t="shared" si="0"/>
-        <v>{name:"PU", value:"/sha/planshare"},</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B26" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26" t="s">
-        <v>56</v>
-      </c>
-      <c r="D26" t="s">
-        <v>290</v>
-      </c>
-      <c r="E26" t="str">
-        <f t="shared" si="0"/>
-        <v>{name:"PEW", value:"/sha/plan/share/分享ID"},</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B27" t="s">
-        <v>32</v>
-      </c>
-      <c r="C27" t="s">
-        <v>57</v>
-      </c>
-      <c r="D27" t="s">
-        <v>291</v>
-      </c>
-      <c r="E27" t="str">
-        <f t="shared" si="0"/>
-        <v>{name:"BIPD", value:"/sha/plan/buildin/download"},</v>
+        <v>{"_id": ObjectID(), "name":"BIPD", "value":"/sha/plan/buildin/download", "desc":"内建计划下载"}</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
@@ -2116,59 +2194,59 @@
         <v>111</v>
       </c>
       <c r="D28" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="E28" t="str">
         <f t="shared" si="0"/>
-        <v>{name:"WSA", value:"/ws"},</v>
+        <v>{"_id": ObjectID(), "name":"WSA", "value":"/ws", "desc":"WebSocket地址"}</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B29" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C29" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D29" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="E29" t="str">
         <f t="shared" si="0"/>
-        <v>{name:"POW", value:"https://pluto.guobaa.com/cal/index"},</v>
+        <v>{"_id": ObjectID(), "name":"POW", "value":"https://pluto.guobaa.com/cal/index", "desc":"产品官网"}</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B30" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C30" t="s">
+        <v>301</v>
+      </c>
+      <c r="D30" t="s">
         <v>304</v>
-      </c>
-      <c r="D30" t="s">
-        <v>307</v>
       </c>
       <c r="E30" t="str">
         <f t="shared" si="0"/>
-        <v>{name:"PP", value:"https://pluto.guobaa.com/cal/doc/privatepolicy"},</v>
+        <v>{"_id": ObjectID(), "name":"PP", "value":"https://pluto.guobaa.com/cal/doc/privatepolicy", "desc":"隐私政策"}</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B31" t="s">
+        <v>302</v>
+      </c>
+      <c r="C31" t="s">
+        <v>303</v>
+      </c>
+      <c r="D31" t="s">
         <v>305</v>
-      </c>
-      <c r="C31" t="s">
-        <v>306</v>
-      </c>
-      <c r="D31" t="s">
-        <v>308</v>
       </c>
       <c r="E31" t="str">
         <f t="shared" si="0"/>
-        <v>{name:"UP", value:"https://pluto.guobaa.com/cal/doc/userproxy"},</v>
+        <v>{"_id": ObjectID(), "name":"UP", "value":"https://pluto.guobaa.com/cal/doc/userproxy", "desc":"使用协议"}</v>
       </c>
     </row>
   </sheetData>
@@ -2322,7 +2400,7 @@
   <dimension ref="A1:E116"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -2522,20 +2600,20 @@
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B20" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B21" s="2"/>
       <c r="C21" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2" t="s">
@@ -2547,7 +2625,7 @@
         <v>9</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2" t="s">
@@ -2557,7 +2635,7 @@
     <row r="23" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B23" s="2"/>
       <c r="C23" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2" t="s">
@@ -2567,7 +2645,7 @@
     <row r="24" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B24" s="2"/>
       <c r="C24" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2" t="s">
@@ -2577,7 +2655,7 @@
     <row r="25" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B25" s="2"/>
       <c r="C25" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2" t="s">
@@ -2589,11 +2667,11 @@
         <v>12</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.15">
@@ -2601,11 +2679,11 @@
         <v>13</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.15">
@@ -2613,26 +2691,26 @@
         <v>14</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B29" s="2"/>
       <c r="C29" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B30" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>138</v>
@@ -2646,27 +2724,27 @@
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>103</v>
@@ -2676,7 +2754,7 @@
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>129</v>
@@ -2686,7 +2764,7 @@
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>130</v>
@@ -2696,47 +2774,47 @@
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>131</v>
@@ -2747,11 +2825,11 @@
         <v>28</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="42" spans="2:5" ht="13.5" x14ac:dyDescent="0.15">
@@ -2759,7 +2837,7 @@
         <v>30</v>
       </c>
       <c r="C42" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D42"/>
       <c r="E42" s="2" t="s">
@@ -2770,10 +2848,10 @@
       <c r="B43" s="2"/>
       <c r="C43"/>
       <c r="D43" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="44" spans="2:5" ht="13.5" x14ac:dyDescent="0.15">
@@ -2783,7 +2861,7 @@
         <v>140</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.15">
@@ -2791,7 +2869,7 @@
         <v>32</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="2" t="s">
@@ -2849,66 +2927,66 @@
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="2" t="s">
-        <v>178</v>
+        <v>314</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B51" s="2"/>
       <c r="C51" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="2" t="s">
-        <v>180</v>
+        <v>315</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B52" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B53" s="2"/>
       <c r="C53" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B54" s="2"/>
       <c r="C54" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>156</v>
@@ -2918,7 +2996,7 @@
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>142</v>
@@ -2928,7 +3006,7 @@
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>157</v>
@@ -2938,30 +3016,30 @@
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B61" s="2"/>
       <c r="C61" s="2" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="2" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.15">
@@ -2969,29 +3047,29 @@
         <v>161</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B63" s="2"/>
       <c r="C63" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B64" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="2" t="s">
@@ -3001,7 +3079,7 @@
     <row r="65" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B65" s="2"/>
       <c r="C65" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="2" t="s">
@@ -3011,7 +3089,7 @@
     <row r="66" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B66" s="2"/>
       <c r="C66" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="2" t="s">
@@ -3022,7 +3100,7 @@
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>103</v>
@@ -3032,37 +3110,37 @@
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>158</v>
@@ -3072,7 +3150,7 @@
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>147</v>
@@ -3081,16 +3159,16 @@
     <row r="73" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B73" s="2"/>
       <c r="C73" s="2" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" s="2" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B74" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>152</v>
@@ -3103,7 +3181,7 @@
     <row r="75" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B75" s="2"/>
       <c r="C75" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" s="2" t="s">
@@ -3113,7 +3191,7 @@
     <row r="76" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B76" s="2"/>
       <c r="C76" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" s="2" t="s">
@@ -3124,7 +3202,7 @@
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>103</v>
@@ -3134,7 +3212,7 @@
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
       <c r="D78" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>156</v>
@@ -3144,7 +3222,7 @@
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
       <c r="D79" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>142</v>
@@ -3154,7 +3232,7 @@
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
       <c r="D80" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>157</v>
@@ -3164,7 +3242,7 @@
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
       <c r="D81" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>158</v>
@@ -3183,19 +3261,19 @@
     <row r="83" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B83" s="2"/>
       <c r="C83" s="2" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" s="2" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B84" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" s="2" t="s">
@@ -3206,7 +3284,7 @@
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
       <c r="D85" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>103</v>
@@ -3216,7 +3294,7 @@
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
       <c r="D86" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>156</v>
@@ -3226,17 +3304,17 @@
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
       <c r="D87" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
       <c r="D88" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>157</v>
@@ -3246,7 +3324,7 @@
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
       <c r="D89" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>158</v>
@@ -3256,7 +3334,7 @@
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
       <c r="D90" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>147</v>
@@ -3279,23 +3357,23 @@
         <v>13</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B93" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="94" spans="2:5" x14ac:dyDescent="0.15">
@@ -3303,18 +3381,18 @@
         <v>26</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
       <c r="D95" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>147</v>
@@ -3324,7 +3402,7 @@
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
       <c r="D96" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>103</v>
@@ -3334,38 +3412,38 @@
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
       <c r="D97" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
       <c r="D98" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B99" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B100" s="2"/>
       <c r="C100" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D100"/>
       <c r="E100" s="2"/>
@@ -3375,19 +3453,19 @@
         <v>32</v>
       </c>
       <c r="C101" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B102" s="2"/>
       <c r="C102" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.15">

--- a/A-开发相关文档素材/6.二期文档/产品接口与参数项目命名.xlsx
+++ b/A-开发相关文档素材/6.二期文档/产品接口与参数项目命名.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xiaoji\Documents\项目资料\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="修改履历" sheetId="1" r:id="rId1"/>
@@ -17,9 +12,9 @@
     <sheet name="消息列表" sheetId="3" r:id="rId3"/>
     <sheet name="参数项目" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -27,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="319">
   <si>
     <t>系统</t>
   </si>
@@ -375,19 +370,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>lt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>pi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>di</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1246,14 +1229,34 @@
   </si>
   <si>
     <t>丁朝辉, 席理加, 张金洋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>di</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设别类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dt</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1383,7 +1386,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1418,7 +1421,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1595,21 +1598,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="35.375" style="1" customWidth="1"/>
@@ -1617,43 +1620,43 @@
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4">
       <c r="A1" s="3">
         <v>43528</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" spans="1:4" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" ht="33.75">
       <c r="A2" s="3">
         <v>43528</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -1666,21 +1669,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="20.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="56" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="C1" t="s">
         <v>58</v>
       </c>
@@ -1688,7 +1691,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1699,14 +1702,14 @@
         <v>33</v>
       </c>
       <c r="D2" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="E2" t="str">
         <f>"{name:"""&amp;C2&amp;""", value:"""&amp;D2&amp;"""},"</f>
         <v>{name:"ID", value:"/gtd/sync/initial_sync"},</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1717,14 +1720,14 @@
         <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="E3" t="str">
         <f t="shared" ref="E3:E31" si="0">"{name:"""&amp;C3&amp;""", value:"""&amp;D3&amp;"""},"</f>
         <v>{name:"RA", value:"/gtd/person/sign_up"},</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1735,14 +1738,14 @@
         <v>35</v>
       </c>
       <c r="D4" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E4" t="str">
         <f t="shared" si="0"/>
         <v>{name:"SSMIC", value:"/gtd/sms/code"},</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5">
       <c r="B5" t="s">
         <v>6</v>
       </c>
@@ -1750,14 +1753,14 @@
         <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="E5" t="str">
         <f t="shared" si="0"/>
         <v>{name:"SML", value:"/gtd/auth/login_authcode"},</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5">
       <c r="B6" t="s">
         <v>7</v>
       </c>
@@ -1765,14 +1768,14 @@
         <v>37</v>
       </c>
       <c r="D6" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="E6" t="str">
         <f t="shared" si="0"/>
         <v>{name:"PL", value:"/gtd/auth/login_password"},</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1783,14 +1786,14 @@
         <v>38</v>
       </c>
       <c r="D7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E7" t="str">
         <f t="shared" si="0"/>
         <v>{name:"AIU", value:"/gtd/person/update_info"},</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5">
       <c r="B8" t="s">
         <v>10</v>
       </c>
@@ -1798,14 +1801,14 @@
         <v>39</v>
       </c>
       <c r="D8" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E8" t="str">
         <f t="shared" si="0"/>
         <v>{name:"AIG", value:"/gtd/person/search"},</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5">
       <c r="B9" t="s">
         <v>11</v>
       </c>
@@ -1813,14 +1816,14 @@
         <v>40</v>
       </c>
       <c r="D9" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="E9" t="str">
         <f t="shared" si="0"/>
         <v>{name:"AAG", value:"/gtd/person/avatar"},</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5">
       <c r="B10" t="s">
         <v>12</v>
       </c>
@@ -1828,14 +1831,14 @@
         <v>41</v>
       </c>
       <c r="D10" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E10" t="str">
         <f t="shared" si="0"/>
         <v>{name:"MP", value:"/gtd/person/update_password"},</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1846,14 +1849,14 @@
         <v>42</v>
       </c>
       <c r="D11" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E11" t="str">
         <f t="shared" si="0"/>
         <v>{name:"B", value:"/bac/backup"},</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5">
       <c r="B12" t="s">
         <v>14</v>
       </c>
@@ -1861,14 +1864,14 @@
         <v>43</v>
       </c>
       <c r="D12" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="E12" t="str">
         <f t="shared" si="0"/>
         <v>{name:"R", value:"/bac/recover"},</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5">
       <c r="B13" t="s">
         <v>15</v>
       </c>
@@ -1876,14 +1879,14 @@
         <v>44</v>
       </c>
       <c r="D13" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E13" t="str">
         <f t="shared" si="0"/>
         <v>{name:"BS", value:"/bac/lastest"},</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -1894,14 +1897,14 @@
         <v>45</v>
       </c>
       <c r="D14" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E14" t="str">
         <f t="shared" si="0"/>
         <v>{name:"AS", value:"/agd/agenda/save"},</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5">
       <c r="B15" t="s">
         <v>18</v>
       </c>
@@ -1909,14 +1912,14 @@
         <v>46</v>
       </c>
       <c r="D15" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E15" t="str">
         <f t="shared" si="0"/>
         <v>{name:"ACS", value:"/agd/agendacontacts/save"},</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5">
       <c r="B16" t="s">
         <v>19</v>
       </c>
@@ -1924,14 +1927,14 @@
         <v>47</v>
       </c>
       <c r="D16" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E16" t="str">
         <f t="shared" si="0"/>
         <v>{name:"AG", value:"/agd/agenda/info"},</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5">
       <c r="B17" t="s">
         <v>20</v>
       </c>
@@ -1939,14 +1942,14 @@
         <v>48</v>
       </c>
       <c r="D17" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E17" t="str">
         <f t="shared" si="0"/>
         <v>{name:"AR", value:"/agd/agenda/remove"},</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5">
       <c r="B18" t="s">
         <v>21</v>
       </c>
@@ -1954,14 +1957,14 @@
         <v>49</v>
       </c>
       <c r="D18" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="E18" t="str">
         <f t="shared" si="0"/>
         <v>{name:"ASU", value:"/sha/agendashare"},</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5">
       <c r="B19" t="s">
         <v>22</v>
       </c>
@@ -1969,14 +1972,14 @@
         <v>50</v>
       </c>
       <c r="D19" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E19" t="str">
         <f t="shared" si="0"/>
         <v>{name:"AEW", value:"/sha/agenda/share/分享ID"},</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1987,14 +1990,14 @@
         <v>51</v>
       </c>
       <c r="D20" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E20" t="str">
         <f t="shared" si="0"/>
         <v>{name:"BLA", value:"/bla/target/add"},</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5">
       <c r="B21" t="s">
         <v>25</v>
       </c>
@@ -2002,14 +2005,14 @@
         <v>52</v>
       </c>
       <c r="D21" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E21" t="str">
         <f t="shared" si="0"/>
         <v>{name:"BLR", value:"/bla/target/remove"},</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5">
       <c r="B22" t="s">
         <v>26</v>
       </c>
@@ -2017,14 +2020,14 @@
         <v>53</v>
       </c>
       <c r="D22" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="E22" t="str">
         <f t="shared" si="0"/>
         <v>{name:"BLG", value:"/bla/list"},</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -2035,29 +2038,29 @@
         <v>54</v>
       </c>
       <c r="D23" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E23" t="str">
         <f t="shared" si="0"/>
         <v>{name:"VU", value:"/gtd/aibutler/audio_base64"},</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5">
       <c r="B24" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C24" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D24" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E24" t="str">
         <f t="shared" si="0"/>
         <v>{name:"TU", value:"/gtd/aibutler/text"},</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -2068,14 +2071,14 @@
         <v>55</v>
       </c>
       <c r="D25" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="E25" t="str">
         <f t="shared" si="0"/>
         <v>{name:"PU", value:"/sha/planshare"},</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5">
       <c r="B26" t="s">
         <v>31</v>
       </c>
@@ -2083,14 +2086,14 @@
         <v>56</v>
       </c>
       <c r="D26" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E26" t="str">
         <f t="shared" si="0"/>
         <v>{name:"PEW", value:"/sha/plan/share/分享ID"},</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:5">
       <c r="B27" t="s">
         <v>32</v>
       </c>
@@ -2098,73 +2101,73 @@
         <v>57</v>
       </c>
       <c r="D27" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E27" t="str">
         <f t="shared" si="0"/>
         <v>{name:"BIPD", value:"/sha/plan/buildin/download"},</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B28" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C28" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D28" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="E28" t="str">
         <f t="shared" si="0"/>
         <v>{name:"WSA", value:"/ws"},</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B29" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C29" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D29" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="E29" t="str">
         <f t="shared" si="0"/>
         <v>{name:"POW", value:"https://pluto.guobaa.com/cal/index"},</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:5">
       <c r="B30" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C30" t="s">
+        <v>301</v>
+      </c>
+      <c r="D30" t="s">
         <v>304</v>
-      </c>
-      <c r="D30" t="s">
-        <v>307</v>
       </c>
       <c r="E30" t="str">
         <f t="shared" si="0"/>
         <v>{name:"PP", value:"https://pluto.guobaa.com/cal/doc/privatepolicy"},</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:5">
       <c r="B31" t="s">
+        <v>302</v>
+      </c>
+      <c r="C31" t="s">
+        <v>303</v>
+      </c>
+      <c r="D31" t="s">
         <v>305</v>
-      </c>
-      <c r="C31" t="s">
-        <v>306</v>
-      </c>
-      <c r="D31" t="s">
-        <v>308</v>
       </c>
       <c r="E31" t="str">
         <f t="shared" si="0"/>
@@ -2178,25 +2181,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="C1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>60</v>
       </c>
@@ -2207,7 +2210,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3">
       <c r="B3" t="s">
         <v>62</v>
       </c>
@@ -2215,7 +2218,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3">
       <c r="B4" t="s">
         <v>63</v>
       </c>
@@ -2223,7 +2226,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3">
       <c r="B5" t="s">
         <v>64</v>
       </c>
@@ -2231,7 +2234,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3">
       <c r="B6" t="s">
         <v>65</v>
       </c>
@@ -2239,7 +2242,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3">
       <c r="B7" t="s">
         <v>66</v>
       </c>
@@ -2247,7 +2250,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3">
       <c r="B8" t="s">
         <v>67</v>
       </c>
@@ -2255,7 +2258,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3">
       <c r="B9" t="s">
         <v>68</v>
       </c>
@@ -2263,7 +2266,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3">
       <c r="B10" t="s">
         <v>69</v>
       </c>
@@ -2271,7 +2274,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3">
       <c r="B11" t="s">
         <v>70</v>
       </c>
@@ -2279,7 +2282,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3">
       <c r="B12" t="s">
         <v>71</v>
       </c>
@@ -2287,7 +2290,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3">
       <c r="B13" t="s">
         <v>72</v>
       </c>
@@ -2295,7 +2298,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3">
       <c r="B14" t="s">
         <v>73</v>
       </c>
@@ -2303,7 +2306,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3">
       <c r="B15" t="s">
         <v>74</v>
       </c>
@@ -2318,14 +2321,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E116"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E117"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="1" width="8.25" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.25" style="1" bestFit="1" customWidth="1"/>
@@ -2335,1177 +2338,1186 @@
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="E1" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>91</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="C3" s="2" t="s">
         <v>92</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="C4" s="2" t="s">
         <v>93</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="C5" s="2" t="s">
         <v>94</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="C6" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="C7" s="2" t="s">
-        <v>96</v>
+        <v>317</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="C8" s="2" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="C9" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="C10" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B11" s="1" t="s">
-        <v>3</v>
-      </c>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="C11" s="2" t="s">
-        <v>143</v>
+        <v>97</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="B12" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="C12" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="C13" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="C14" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B15" s="2"/>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="C15" s="2" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="D15" s="2"/>
-      <c r="E15" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B16" s="2" t="s">
-        <v>161</v>
-      </c>
+      <c r="E15" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="B16" s="2"/>
       <c r="C16" s="2" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
       <c r="B17" s="2" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B18" s="2"/>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="C18" s="2" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.15">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
       <c r="B19" s="2"/>
       <c r="C19" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B20" s="2" t="s">
-        <v>210</v>
-      </c>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" s="2"/>
       <c r="C20" s="2" t="s">
-        <v>209</v>
+        <v>164</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B21" s="2"/>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" s="2" t="s">
+        <v>207</v>
+      </c>
       <c r="C21" s="2" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B22" s="2" t="s">
-        <v>9</v>
-      </c>
+        <v>221</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" s="2"/>
       <c r="C22" s="2" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B23" s="2"/>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C23" s="2" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.15">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
       <c r="B24" s="2"/>
       <c r="C24" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.15">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
       <c r="B25" s="2"/>
       <c r="C25" s="2" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B26" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26" s="2"/>
       <c r="C26" s="2" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.15">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5">
       <c r="B27" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.15">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5">
       <c r="B28" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B29" s="2"/>
+        <v>229</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="B29" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="C29" s="2" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B30" s="2" t="s">
-        <v>236</v>
-      </c>
+        <v>229</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="B30" s="2"/>
       <c r="C30" s="2" t="s">
-        <v>138</v>
+        <v>230</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2" t="s">
-        <v>237</v>
-      </c>
+        <v>231</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5">
+      <c r="B31" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D31" s="2"/>
       <c r="E31" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.15">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.15">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.15">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.15">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.15">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.15">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.15">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.15">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B41" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5">
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5">
+      <c r="B42" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C42" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" ht="13.5">
+      <c r="B43" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C43" t="s">
+        <v>232</v>
+      </c>
+      <c r="D43"/>
+      <c r="E43" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" ht="13.5">
+      <c r="B44" s="2"/>
+      <c r="C44"/>
+      <c r="D44" t="s">
+        <v>259</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2" t="s">
+    </row>
+    <row r="45" spans="2:5" ht="13.5">
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" t="s">
+        <v>137</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="42" spans="2:5" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B42" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C42" t="s">
-        <v>235</v>
-      </c>
-      <c r="D42"/>
-      <c r="E42" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B43" s="2"/>
-      <c r="C43"/>
-      <c r="D43" t="s">
-        <v>262</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" t="s">
-        <v>140</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B45" s="2" t="s">
+    <row r="46" spans="2:5">
+      <c r="B46" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B46" s="2" t="s">
-        <v>168</v>
-      </c>
       <c r="C46" s="2" t="s">
-        <v>169</v>
+        <v>265</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B47" s="2"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5">
+      <c r="B47" s="2" t="s">
+        <v>165</v>
+      </c>
       <c r="C47" s="2" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.15">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5">
       <c r="B48" s="2"/>
       <c r="C48" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B49" s="2" t="s">
-        <v>174</v>
-      </c>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5">
+      <c r="B49" s="2"/>
       <c r="C49" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B50" s="2"/>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5">
+      <c r="B50" s="2" t="s">
+        <v>171</v>
+      </c>
       <c r="C50" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.15">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5">
       <c r="B51" s="2"/>
       <c r="C51" s="2" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B52" s="2" t="s">
-        <v>181</v>
-      </c>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5">
+      <c r="B52" s="2"/>
       <c r="C52" s="2" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B53" s="2"/>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5">
+      <c r="B53" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="C53" s="2" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.15">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5">
       <c r="B54" s="2"/>
       <c r="C54" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.15">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5">
       <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2" t="s">
-        <v>188</v>
-      </c>
+      <c r="C55" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D55" s="2"/>
       <c r="E55" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.15">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5">
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.15">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5">
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.15">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5">
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.15">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5">
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.15">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5">
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.15">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5">
       <c r="B61" s="2"/>
-      <c r="C61" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="D61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2" t="s">
+        <v>191</v>
+      </c>
       <c r="E61" s="2" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B62" s="2" t="s">
-        <v>161</v>
-      </c>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5">
+      <c r="B62" s="2"/>
       <c r="C62" s="2" t="s">
-        <v>196</v>
+        <v>310</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B63" s="2"/>
+        <v>311</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5">
+      <c r="B63" s="2" t="s">
+        <v>158</v>
+      </c>
       <c r="C63" s="2" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B64" s="2" t="s">
-        <v>200</v>
-      </c>
+        <v>194</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5">
+      <c r="B64" s="2"/>
       <c r="C64" s="2" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B65" s="2"/>
+        <v>196</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5">
+      <c r="B65" s="2" t="s">
+        <v>197</v>
+      </c>
       <c r="C65" s="2" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.15">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5">
       <c r="B66" s="2"/>
       <c r="C66" s="2" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.15">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5">
       <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2" t="s">
-        <v>204</v>
-      </c>
+      <c r="C67" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D67" s="2"/>
       <c r="E67" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5">
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5">
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.15">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5">
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.15">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5">
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.15">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5">
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.15">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5">
       <c r="B73" s="2"/>
-      <c r="C73" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="D73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2" t="s">
+        <v>191</v>
+      </c>
       <c r="E73" s="2" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B74" s="2" t="s">
-        <v>218</v>
-      </c>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5">
+      <c r="B74" s="2"/>
       <c r="C74" s="2" t="s">
-        <v>152</v>
+        <v>310</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B75" s="2"/>
+        <v>311</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5">
+      <c r="B75" s="2" t="s">
+        <v>215</v>
+      </c>
       <c r="C75" s="2" t="s">
-        <v>211</v>
+        <v>149</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.15">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5">
       <c r="B76" s="2"/>
       <c r="C76" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.15">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5">
       <c r="B77" s="2"/>
-      <c r="C77" s="2"/>
-      <c r="D77" s="2" t="s">
-        <v>213</v>
-      </c>
+      <c r="C77" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D77" s="2"/>
       <c r="E77" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5">
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
       <c r="D78" s="2" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5">
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
       <c r="D79" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.15">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5">
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
       <c r="D80" s="2" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.15">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5">
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
       <c r="D81" s="2" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.15">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5">
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
       <c r="D82" s="2" t="s">
-        <v>143</v>
+        <v>214</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.15">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5">
       <c r="B83" s="2"/>
-      <c r="C83" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="D83" s="2"/>
+      <c r="C83" s="2"/>
+      <c r="D83" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="E83" s="2" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B84" s="2" t="s">
-        <v>228</v>
-      </c>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5">
+      <c r="B84" s="2"/>
       <c r="C84" s="2" t="s">
-        <v>225</v>
+        <v>310</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B85" s="2"/>
-      <c r="C85" s="2"/>
-      <c r="D85" s="2" t="s">
-        <v>226</v>
-      </c>
+        <v>311</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5">
+      <c r="B85" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D85" s="2"/>
       <c r="E85" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5">
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
       <c r="D86" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5">
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
       <c r="D87" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.15">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5">
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
       <c r="D88" s="2" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.15">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5">
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
       <c r="D89" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.15">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5">
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
       <c r="D90" s="2" t="s">
         <v>220</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="91" spans="2:5" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B91" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5">
+      <c r="B91" s="2"/>
+      <c r="C91" s="2"/>
+      <c r="D91" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5" ht="13.5">
+      <c r="B92" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C91" t="s">
-        <v>153</v>
-      </c>
-      <c r="D91" s="2"/>
-      <c r="E91" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B92" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>231</v>
+      <c r="C92" t="s">
+        <v>150</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.15">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="93" spans="2:5">
       <c r="B93" s="2" t="s">
-        <v>253</v>
+        <v>13</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>254</v>
+        <v>228</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.15">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5">
       <c r="B94" s="2" t="s">
-        <v>26</v>
+        <v>250</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" s="2" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B95" s="2"/>
-      <c r="C95" s="2"/>
-      <c r="D95" s="2" t="s">
-        <v>220</v>
-      </c>
+        <v>252</v>
+      </c>
+    </row>
+    <row r="95" spans="2:5">
+      <c r="B95" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="D95" s="2"/>
       <c r="E95" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.15">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="96" spans="2:5">
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
       <c r="D96" s="2" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.15">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
       <c r="D97" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
       <c r="D98" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B99" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="C99" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="B99" s="2"/>
+      <c r="C99" s="2"/>
+      <c r="D99" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="B100" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="D100" s="2"/>
+      <c r="E100" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="13.5">
+      <c r="B101" s="2"/>
+      <c r="C101" t="s">
         <v>266</v>
       </c>
-      <c r="D99" s="2"/>
-      <c r="E99" s="2" t="s">
+      <c r="D101"/>
+      <c r="E101" s="2"/>
+    </row>
+    <row r="102" spans="1:5" ht="13.5">
+      <c r="B102" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C102" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B100" s="2"/>
-      <c r="C100" t="s">
-        <v>269</v>
-      </c>
-      <c r="D100"/>
-      <c r="E100" s="2"/>
-    </row>
-    <row r="101" spans="1:5" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B101" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C101" t="s">
-        <v>270</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B102" s="2"/>
-      <c r="C102" t="s">
-        <v>271</v>
-      </c>
       <c r="E102" s="2" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A103" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="13.5">
+      <c r="B103" s="2"/>
+      <c r="C103" t="s">
+        <v>268</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="C105" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="C106" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B103" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E103" s="1" t="s">
+      <c r="E106" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="C107" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="C108" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C104" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C105" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E105" s="1" t="s">
+      <c r="E108" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="C109" s="1" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C106" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E106" s="1" t="s">
+      <c r="E109" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="C110" s="1" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C107" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E107" s="1" t="s">
+      <c r="E110" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="C111" s="1" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C108" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E108" s="1" t="s">
+      <c r="E111" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="C112" s="1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C109" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E109" s="1" t="s">
+      <c r="E112" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="113" spans="3:5">
+      <c r="C113" s="1" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C110" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E110" s="1" t="s">
+      <c r="E113" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="114" spans="3:5">
+      <c r="C114" s="1" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C111" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E111" s="1" t="s">
+      <c r="E114" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="115" spans="3:5">
+      <c r="C115" s="1" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C112" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="113" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C113" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="E113" s="1" t="s">
+      <c r="E115" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="116" spans="3:5">
+      <c r="C116" s="1" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="114" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C114" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E114" s="1" t="s">
+      <c r="E116" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="117" spans="3:5">
+      <c r="C117" s="1" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="115" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C115" s="1" t="s">
+      <c r="E117" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="E115" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="116" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C116" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E116" s="1" t="s">
-        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/A-开发相关文档素材/6.二期文档/产品接口与参数项目命名.xlsx
+++ b/A-开发相关文档素材/6.二期文档/产品接口与参数项目命名.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xiaoji\Documents\项目资料\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xiaoji\git\GTD2-dev\A-开发相关文档素材\6.二期文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="修改履历" sheetId="1" r:id="rId1"/>
     <sheet name="接口列表" sheetId="2" r:id="rId2"/>
     <sheet name="消息列表" sheetId="3" r:id="rId3"/>
     <sheet name="参数项目" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="343">
   <si>
     <t>系统</t>
   </si>
@@ -1237,10 +1238,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>bipl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>vrs</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1256,6 +1253,105 @@
   </si>
   <si>
     <t>席理加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>worldcup_schedule_2020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020世界杯赛程</t>
+  </si>
+  <si>
+    <t>SA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XO,我真的不知道哎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XO,I don't know, hoho</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中文回答</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英文回答</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>planid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>planname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plandesc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>planmark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>世界杯观赛日历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#037688</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chinese_famous_2019</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019中国节气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>农历节气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#03FF88</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bipl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唤醒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新消息提醒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语音播报</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>震动</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1677,8 +1773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -1718,10 +1814,10 @@
         <v>43528</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>317</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>318</v>
       </c>
       <c r="D3" s="3"/>
     </row>
@@ -1748,7 +1844,7 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1777,7 +1873,7 @@
         <v>33</v>
       </c>
       <c r="D2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E2" t="str">
         <f>"{""_id"": ObjectID(), ""name"":"""&amp;C2&amp;""", ""value"":"""&amp;D2&amp;""", ""desc"":"""&amp;B2&amp;"""}"</f>
@@ -2399,8 +2495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E116"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -2927,7 +3023,7 @@
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="2" t="s">
-        <v>314</v>
+        <v>335</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.15">
@@ -2937,7 +3033,7 @@
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.15">
@@ -3590,4 +3686,165 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:G27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
+        <v>325</v>
+      </c>
+      <c r="C2" t="s">
+        <v>326</v>
+      </c>
+      <c r="D2" t="s">
+        <v>327</v>
+      </c>
+      <c r="E2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>318</v>
+      </c>
+      <c r="C3" t="s">
+        <v>319</v>
+      </c>
+      <c r="D3" t="s">
+        <v>329</v>
+      </c>
+      <c r="E3" t="s">
+        <v>330</v>
+      </c>
+      <c r="G3" t="str">
+        <f>"{""_id"": ObjectID(), ""planid"":"""&amp;B3&amp;""", ""planname"":"""&amp;C3&amp;""", ""plandesc"":"""&amp;D3&amp;""", ""planmark"":"""&amp;E3&amp;"""}"</f>
+        <v>{"_id": ObjectID(), "planid":"worldcup_schedule_2020", "planname":"2020世界杯赛程", "plandesc":"世界杯观赛日历", "planmark":"#037688"}</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>331</v>
+      </c>
+      <c r="C4" t="s">
+        <v>333</v>
+      </c>
+      <c r="D4" t="s">
+        <v>332</v>
+      </c>
+      <c r="E4" t="s">
+        <v>334</v>
+      </c>
+      <c r="G4" t="str">
+        <f>"{""_id"": ObjectID(), ""planid"":"""&amp;B4&amp;""", ""planname"":"""&amp;C4&amp;""", ""plandesc"":"""&amp;D4&amp;""", ""planmark"":"""&amp;E4&amp;"""}"</f>
+        <v>{"_id": ObjectID(), "planid":"chinese_famous_2019", "planname":"农历节气", "plandesc":"2019中国节气", "planmark":"#03FF88"}</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B17" t="s">
+        <v>320</v>
+      </c>
+      <c r="C17" t="s">
+        <v>321</v>
+      </c>
+      <c r="E17" t="s">
+        <v>323</v>
+      </c>
+      <c r="G17" t="str">
+        <f>"{""_id"": ObjectID(), ""name"":"""&amp;B17&amp;""", ""value"":"""&amp;C17&amp;""", ""desc"":"""&amp;E17&amp;"""}"</f>
+        <v>{"_id": ObjectID(), "name":"SA", "value":"XO,我真的不知道哎", "desc":"中文回答"}</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B18" t="s">
+        <v>320</v>
+      </c>
+      <c r="C18" t="s">
+        <v>322</v>
+      </c>
+      <c r="E18" t="s">
+        <v>324</v>
+      </c>
+      <c r="G18" t="str">
+        <f>"{""_id"": ObjectID(), ""name"":"""&amp;B18&amp;""", ""value"":"""&amp;C18&amp;""", ""desc"":"""&amp;E18&amp;"""}"</f>
+        <v>{"_id": ObjectID(), "name":"SA", "value":"XO,I don't know, hoho", "desc":"英文回答"}</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B24" t="s">
+        <v>337</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="E24" t="s">
+        <v>336</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" ref="G24:G27" si="0">"{""_id"": ObjectID(), ""name"":"""&amp;B24&amp;""", ""value"":"""&amp;C24&amp;""", ""desc"":"""&amp;E24&amp;"""}"</f>
+        <v>{"_id": ObjectID(), "name":"H", "value":"0", "desc":"唤醒"}</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B25" t="s">
+        <v>338</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="E25" t="s">
+        <v>340</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="0"/>
+        <v>{"_id": ObjectID(), "name":"T", "value":"0", "desc":"新消息提醒"}</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="E26" t="s">
+        <v>341</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="0"/>
+        <v>{"_id": ObjectID(), "name":"B", "value":"0", "desc":"语音播报"}</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B27" t="s">
+        <v>339</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="E27" t="s">
+        <v>342</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="0"/>
+        <v>{"_id": ObjectID(), "name":"Z", "value":"0", "desc":"震动"}</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>